--- a/data/case1/12/P2_14.xlsx
+++ b/data/case1/12/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.11648230076377786</v>
+        <v>0.093312672893958393</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.045993385623919636</v>
+        <v>-0.022450511379972227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999996612188937</v>
+        <v>-0.0089999998327634501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399374419570478</v>
+        <v>0.2839963621714432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996720634385</v>
+        <v>-0.0059999998388757803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999996601405314</v>
+        <v>-0.0059999998332251891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999596832296</v>
+        <v>-0.026959134408373941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999594340956</v>
+        <v>-0.019999999795844658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999996545521128</v>
+        <v>-0.0059999998266171417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999996529285227</v>
+        <v>-0.0059999998237501018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999996594583536</v>
+        <v>-0.0044999998269972252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.017093584501035153</v>
+        <v>-0.0059999998226047957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999996495960772</v>
+        <v>-0.0059999998195792159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999622098301</v>
+        <v>-0.011999999804113592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999996485187168</v>
+        <v>-0.0059999998179245395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.022389378068138122</v>
+        <v>-0.0059999998172621805</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.029449624954971831</v>
+        <v>-0.0059999998163950963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999996368810287</v>
+        <v>-0.008999999808903425</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.04635133955779569</v>
+        <v>-0.0089999998323442298</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999996577745378</v>
+        <v>-0.0089999998280596571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999996573082441</v>
+        <v>-0.0089999998271217407</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999656984059</v>
+        <v>-0.050315594525227159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999996583101094</v>
+        <v>-0.0089999998311762752</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999505910601</v>
+        <v>-0.041999999748457029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999503243401</v>
+        <v>-0.041999999747050154</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999996588686599</v>
+        <v>-0.0059999998329303139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999996570634373</v>
+        <v>-0.0059999998326185633</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999996492958729</v>
+        <v>-0.0059999998313937652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999617348323</v>
+        <v>-0.01199999981615818</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999579233041</v>
+        <v>0.03183344881399286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999597927527</v>
+        <v>-0.014999999807018938</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999570542549</v>
+        <v>-0.020999999792212343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999996371642439</v>
+        <v>-0.0059999998284183675</v>
       </c>
     </row>
   </sheetData>
